--- a/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571897AD-F9B7-4CE4-B03E-C577D3EC8F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="383">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1188,12 +1181,15 @@
   </si>
   <si>
     <t>12/27-29/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2069,7 +2065,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2108,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2176,7 +2172,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2232,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2298,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2365,7 +2361,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2463,7 +2459,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2518,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2587,7 +2583,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2630,7 +2626,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2705,7 +2701,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2891,7 +2887,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2953,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3011,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3081,7 +3077,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3137,7 +3133,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3212,7 +3208,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3251,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3321,7 +3317,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3377,7 +3373,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,7 +3471,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3538,7 +3534,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,25 +3600,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3634,13 +3630,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3649,14 +3645,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3960,7 +3956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3970,7 +3966,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3978,34 +3974,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A544" activePane="bottomLeft"/>
+      <pane ySplit="2160" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="D559" sqref="D559"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -4028,7 +4024,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -4046,7 +4042,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4066,7 +4062,7 @@
       <c r="J4" s="59"/>
       <c r="K4" s="60"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4074,7 +4070,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4087,7 +4083,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -4104,7 +4100,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4139,7 +4135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4163,7 +4159,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4185,27 +4181,29 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34866</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>0.625</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>0.625</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>34881</v>
       </c>
@@ -4225,7 +4223,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34912</v>
@@ -4246,7 +4244,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A17" si="0">EDATE(A13,1)</f>
         <v>34943</v>
@@ -4267,7 +4265,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4288,7 +4286,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4309,7 +4307,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4330,7 +4328,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -4348,7 +4346,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>35065</v>
@@ -4369,7 +4367,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35096</v>
@@ -4390,7 +4388,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35125</v>
@@ -4411,7 +4409,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4436,7 +4434,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4457,7 +4455,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4478,7 +4476,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4499,7 +4497,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f>EDATE(A25,1)</f>
         <v>35278</v>
@@ -4520,7 +4518,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4545,7 +4543,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4566,7 +4564,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4591,7 +4589,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35400</v>
@@ -4612,7 +4610,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -4627,7 +4625,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>35431</v>
@@ -4648,7 +4646,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>35462</v>
@@ -4675,7 +4673,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>35490</v>
@@ -4702,7 +4700,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4723,7 +4721,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4744,7 +4742,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -4765,7 +4763,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4786,7 +4784,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4807,7 +4805,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4832,7 +4830,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>55</v>
@@ -4851,7 +4849,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35704</v>
@@ -4872,7 +4870,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35735</v>
@@ -4899,7 +4897,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -4924,7 +4922,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>58</v>
       </c>
@@ -4942,7 +4940,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>35796</v>
@@ -4963,7 +4961,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>35827</v>
@@ -4990,7 +4988,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>59</v>
@@ -5009,7 +5007,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35855</v>
@@ -5030,7 +5028,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A61" si="3">EDATE(A49,1)</f>
         <v>35886</v>
@@ -5051,7 +5049,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5076,7 +5074,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5103,7 +5101,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5120,7 +5118,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>35977</v>
@@ -5147,7 +5145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>68</v>
@@ -5164,7 +5162,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36008</v>
@@ -5189,7 +5187,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f>EDATE(A56,1)</f>
         <v>36039</v>
@@ -5212,7 +5210,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>66</v>
@@ -5233,7 +5231,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>72</v>
@@ -5250,7 +5248,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <f>EDATE(A57,1)</f>
         <v>36069</v>
@@ -5275,7 +5273,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5302,7 +5300,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5319,7 +5317,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36130</v>
@@ -5344,7 +5342,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="48" t="s">
         <v>76</v>
       </c>
@@ -5362,7 +5360,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>36161</v>
@@ -5389,7 +5387,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>78</v>
@@ -5406,7 +5404,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>36192</v>
@@ -5433,7 +5431,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>79</v>
@@ -5450,7 +5448,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>36220</v>
@@ -5475,7 +5473,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>66</v>
@@ -5494,7 +5492,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>83</v>
@@ -5511,7 +5509,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f>EDATE(A69,1)</f>
         <v>36251</v>
@@ -5532,7 +5530,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A85" si="4">EDATE(A72,1)</f>
         <v>36281</v>
@@ -5559,7 +5557,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>69</v>
@@ -5576,7 +5574,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36312</v>
@@ -5603,7 +5601,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>66</v>
@@ -5622,7 +5620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>83</v>
@@ -5639,7 +5637,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36342</v>
@@ -5664,7 +5662,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5689,7 +5687,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -5716,7 +5714,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5735,7 +5733,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>55</v>
@@ -5754,7 +5752,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>88</v>
@@ -5771,7 +5769,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -5796,7 +5794,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5823,7 +5821,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>55</v>
@@ -5842,7 +5840,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>91</v>
@@ -5859,7 +5857,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <f>EDATE(A85,1)</f>
         <v>36495</v>
@@ -5886,7 +5884,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>49</v>
@@ -5903,7 +5901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5923,7 +5921,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5943,7 +5941,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="48" t="s">
         <v>95</v>
       </c>
@@ -5961,7 +5959,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f>EDATE(A88,1)</f>
         <v>36526</v>
@@ -5986,7 +5984,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
@@ -6006,7 +6004,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6033,7 +6031,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>98</v>
@@ -6050,7 +6048,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36586</v>
@@ -6075,7 +6073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>102</v>
@@ -6094,7 +6092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6111,7 +6109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>68</v>
@@ -6128,7 +6126,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <f>EDATE(A97,1)</f>
         <v>36617</v>
@@ -6155,7 +6153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>104</v>
@@ -6172,7 +6170,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>36647</v>
@@ -6199,7 +6197,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" ref="A104:A113" si="5">EDATE(A103,1)</f>
         <v>36678</v>
@@ -6220,7 +6218,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6245,7 +6243,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6272,7 +6270,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>106</v>
@@ -6289,7 +6287,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>87</v>
@@ -6306,7 +6304,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f>EDATE(A106,1)</f>
         <v>36770</v>
@@ -6333,7 +6331,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>109</v>
@@ -6350,7 +6348,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>36800</v>
@@ -6375,7 +6373,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6400,7 +6398,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6427,7 +6425,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>112</v>
@@ -6444,7 +6442,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="48" t="s">
         <v>96</v>
       </c>
@@ -6462,7 +6460,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A113,1)</f>
         <v>36892</v>
@@ -6487,7 +6485,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -6504,7 +6502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>36923</v>
@@ -6529,7 +6527,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>59</v>
@@ -6546,7 +6544,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f>EDATE(A118,1)</f>
         <v>36951</v>
@@ -6573,7 +6571,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>55</v>
@@ -6592,7 +6590,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -6609,7 +6607,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>36982</v>
@@ -6630,7 +6628,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>37012</v>
@@ -6657,7 +6655,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>68</v>
@@ -6674,7 +6672,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37043</v>
@@ -6699,7 +6697,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6720,7 +6718,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6745,7 +6743,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6772,7 +6770,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6799,7 +6797,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6826,7 +6824,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>98</v>
@@ -6843,7 +6841,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>37226</v>
@@ -6868,7 +6866,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>119</v>
       </c>
@@ -6886,7 +6884,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>37257</v>
@@ -6913,7 +6911,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6932,7 +6930,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>120</v>
@@ -6949,7 +6947,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f>EDATE(A135,1)</f>
         <v>37288</v>
@@ -6974,7 +6972,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A151" si="7">EDATE(A138,1)</f>
         <v>37316</v>
@@ -6999,7 +6997,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>37347</v>
@@ -7024,7 +7022,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -7041,7 +7039,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37377</v>
@@ -7068,7 +7066,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>66</v>
@@ -7085,7 +7083,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37408</v>
@@ -7110,7 +7108,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -7131,7 +7129,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -7158,7 +7156,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>55</v>
@@ -7177,7 +7175,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7202,7 +7200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -7229,7 +7227,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -7254,7 +7252,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -7279,7 +7277,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>86</v>
@@ -7296,7 +7294,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48" t="s">
         <v>127</v>
       </c>
@@ -7314,7 +7312,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>37622</v>
@@ -7339,7 +7337,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <f>EDATE(A154,1)</f>
         <v>37653</v>
@@ -7364,7 +7362,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>49</v>
@@ -7381,7 +7379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>37681</v>
@@ -7408,7 +7406,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7425,7 +7423,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>37712</v>
@@ -7450,7 +7448,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>55</v>
@@ -7469,7 +7467,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37742</v>
@@ -7496,7 +7494,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" ref="A162:A163" si="8">EDATE(A161,1)</f>
         <v>37773</v>
@@ -7523,7 +7521,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -7550,7 +7548,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>133</v>
@@ -7567,7 +7565,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>37834</v>
@@ -7594,7 +7592,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>105</v>
@@ -7611,7 +7609,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="49"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>37865</v>
@@ -7638,7 +7636,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>105</v>
@@ -7655,7 +7653,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>37895</v>
@@ -7682,7 +7680,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>55</v>
@@ -7701,7 +7699,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>134</v>
@@ -7718,7 +7716,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>37926</v>
@@ -7743,7 +7741,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>37956</v>
@@ -7770,7 +7768,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>136</v>
@@ -7790,7 +7788,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>138</v>
@@ -7807,7 +7805,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="48" t="s">
         <v>137</v>
       </c>
@@ -7825,7 +7823,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f>EDATE(A173,1)</f>
         <v>37987</v>
@@ -7850,7 +7848,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f>EDATE(A177,1)</f>
         <v>38018</v>
@@ -7875,7 +7873,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A196" si="9">EDATE(A178,1)</f>
         <v>38047</v>
@@ -7902,7 +7900,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>66</v>
@@ -7921,7 +7919,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>49</v>
@@ -7938,7 +7936,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>112</v>
@@ -7955,7 +7953,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <f>EDATE(A179,1)</f>
         <v>38078</v>
@@ -7980,7 +7978,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -8007,7 +8005,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>143</v>
@@ -8027,7 +8025,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38139</v>
@@ -8052,7 +8050,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>49</v>
@@ -8072,7 +8070,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>38169</v>
@@ -8097,7 +8095,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f t="shared" si="9"/>
         <v>38200</v>
@@ -8124,7 +8122,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>49</v>
@@ -8141,7 +8139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>110</v>
@@ -8158,7 +8156,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="49"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>38231</v>
@@ -8183,7 +8181,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -8210,7 +8208,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>104</v>
@@ -8227,7 +8225,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>38292</v>
@@ -8252,7 +8250,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -8279,7 +8277,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>143</v>
@@ -8299,7 +8297,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>57</v>
@@ -8321,7 +8319,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="48" t="s">
         <v>148</v>
       </c>
@@ -8339,7 +8337,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A196,1)</f>
         <v>38353</v>
@@ -8364,7 +8362,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>106</v>
@@ -8381,7 +8379,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>49</v>
@@ -8398,7 +8396,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <f>EDATE(A200,1)</f>
         <v>38384</v>
@@ -8423,7 +8421,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f t="shared" ref="A204:A222" si="10">EDATE(A203,1)</f>
         <v>38412</v>
@@ -8450,7 +8448,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>151</v>
@@ -8467,7 +8465,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>38443</v>
@@ -8494,7 +8492,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>55</v>
@@ -8513,7 +8511,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>110</v>
@@ -8530,7 +8528,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <f>EDATE(A206,1)</f>
         <v>38473</v>
@@ -8555,7 +8553,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -8582,7 +8580,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>66</v>
@@ -8601,7 +8599,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>87</v>
@@ -8618,7 +8616,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f>EDATE(A210,1)</f>
         <v>38534</v>
@@ -8643,7 +8641,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -8668,7 +8666,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -8695,7 +8693,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
@@ -8712,7 +8710,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>152</v>
@@ -8729,7 +8727,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38626</v>
@@ -8756,7 +8754,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>154</v>
@@ -8773,7 +8771,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>158</v>
@@ -8790,7 +8788,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f>EDATE(A218,1)</f>
         <v>38657</v>
@@ -8815,7 +8813,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -8842,7 +8840,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>162</v>
@@ -8862,7 +8860,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="48" t="s">
         <v>161</v>
       </c>
@@ -8880,7 +8878,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f>EDATE(A222,1)</f>
         <v>38718</v>
@@ -8907,7 +8905,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>158</v>
@@ -8924,7 +8922,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>163</v>
@@ -8941,7 +8939,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <f>EDATE(A225,1)</f>
         <v>38749</v>
@@ -8966,7 +8964,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>165</v>
@@ -8983,7 +8981,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38777</v>
@@ -9010,7 +9008,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -9029,7 +9027,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>55</v>
@@ -9048,7 +9046,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>55</v>
@@ -9067,7 +9065,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>66</v>
@@ -9086,7 +9084,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>167</v>
@@ -9103,7 +9101,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <f>EDATE(A230,1)</f>
         <v>38808</v>
@@ -9128,7 +9126,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f t="shared" ref="A237:A245" si="11">EDATE(A236,1)</f>
         <v>38838</v>
@@ -9155,7 +9153,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>170</v>
@@ -9172,7 +9170,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>38869</v>
@@ -9197,7 +9195,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -9224,7 +9222,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>171</v>
@@ -9241,7 +9239,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>38930</v>
@@ -9266,7 +9264,7 @@
       <c r="J242" s="12"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -9291,7 +9289,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -9316,7 +9314,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -9343,7 +9341,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -9360,7 +9358,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>39052</v>
@@ -9385,7 +9383,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>178</v>
@@ -9405,7 +9403,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="48" t="s">
         <v>177</v>
       </c>
@@ -9423,7 +9421,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>39083</v>
@@ -9448,7 +9446,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>39114</v>
@@ -9475,7 +9473,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>136</v>
@@ -9494,7 +9492,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>180</v>
@@ -9511,7 +9509,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>39142</v>
@@ -9536,7 +9534,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A265" si="12">EDATE(A254,1)</f>
         <v>39173</v>
@@ -9561,7 +9559,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>49</v>
@@ -9578,7 +9576,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>182</v>
@@ -9595,7 +9593,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
         <f>EDATE(A255,1)</f>
         <v>39203</v>
@@ -9620,7 +9618,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -9647,7 +9645,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>190</v>
@@ -9664,7 +9662,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>39264</v>
@@ -9691,7 +9689,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>55</v>
@@ -9710,7 +9708,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>184</v>
@@ -9727,7 +9725,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39295</v>
@@ -9752,7 +9750,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" si="12"/>
         <v>39326</v>
@@ -9779,7 +9777,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>55</v>
@@ -9798,7 +9796,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>193</v>
@@ -9815,7 +9813,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f>EDATE(A265,1)</f>
         <v>39356</v>
@@ -9842,7 +9840,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>194</v>
@@ -9859,7 +9857,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39387</v>
@@ -9886,7 +9884,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>136</v>
@@ -9905,7 +9903,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>196</v>
@@ -9922,7 +9920,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f>EDATE(A270,1)</f>
         <v>39417</v>
@@ -9947,7 +9945,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="48" t="s">
         <v>179</v>
       </c>
@@ -9965,7 +9963,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>39448</v>
@@ -9992,7 +9990,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>202</v>
@@ -10009,7 +10007,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>39479</v>
@@ -10034,7 +10032,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>203</v>
@@ -10051,7 +10049,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>39508</v>
@@ -10076,7 +10074,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <f t="shared" ref="A280:A291" si="13">EDATE(A279,1)</f>
         <v>39539</v>
@@ -10101,7 +10099,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>207</v>
@@ -10118,7 +10116,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39569</v>
@@ -10145,7 +10143,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>128</v>
@@ -10164,7 +10162,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>209</v>
@@ -10181,7 +10179,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f>EDATE(A282,1)</f>
         <v>39600</v>
@@ -10206,7 +10204,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
         <f t="shared" si="13"/>
         <v>39630</v>
@@ -10233,7 +10231,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>211</v>
@@ -10250,7 +10248,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39661</v>
@@ -10277,7 +10275,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>212</v>
@@ -10294,7 +10292,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>39692</v>
@@ -10319,7 +10317,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <f t="shared" si="13"/>
         <v>39722</v>
@@ -10346,7 +10344,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>55</v>
@@ -10365,7 +10363,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>214</v>
@@ -10382,7 +10380,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f>EDATE(A291,1)</f>
         <v>39753</v>
@@ -10409,7 +10407,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>55</v>
@@ -10428,7 +10426,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>215</v>
@@ -10445,7 +10443,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10472,7 +10470,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="41"/>
       <c r="B298" s="15" t="s">
         <v>217</v>
@@ -10492,7 +10490,7 @@
       <c r="J298" s="12"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="48" t="s">
         <v>220</v>
       </c>
@@ -10510,7 +10508,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>39814</v>
@@ -10537,7 +10535,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>221</v>
@@ -10554,7 +10552,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>39845</v>
@@ -10579,7 +10577,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" ref="A303:A318" si="14">EDATE(A302,1)</f>
         <v>39873</v>
@@ -10604,7 +10602,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>79</v>
@@ -10624,7 +10622,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <f>EDATE(A303,1)</f>
         <v>39904</v>
@@ -10649,7 +10647,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>225</v>
@@ -10669,7 +10667,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>39934</v>
@@ -10696,7 +10694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>49</v>
@@ -10713,7 +10711,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>226</v>
@@ -10730,7 +10728,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>39965</v>
@@ -10755,7 +10753,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" si="14"/>
         <v>39995</v>
@@ -10782,7 +10780,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>230</v>
@@ -10799,7 +10797,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40026</v>
@@ -10824,7 +10822,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -10851,7 +10849,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10870,7 +10868,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>233</v>
@@ -10887,7 +10885,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>40087</v>
@@ -10912,7 +10910,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -10939,7 +10937,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>55</v>
@@ -10958,7 +10956,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>235</v>
@@ -10975,7 +10973,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A318,1)</f>
         <v>40148</v>
@@ -11002,7 +11000,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>236</v>
@@ -11022,7 +11020,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>59</v>
@@ -11044,7 +11042,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="48" t="s">
         <v>239</v>
       </c>
@@ -11062,7 +11060,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>40179</v>
@@ -11087,7 +11085,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>240</v>
@@ -11104,7 +11102,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>40210</v>
@@ -11129,7 +11127,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A344" si="15">EDATE(A327,1)</f>
         <v>40238</v>
@@ -11154,7 +11152,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>243</v>
@@ -11174,7 +11172,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>40269</v>
@@ -11199,7 +11197,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>246</v>
@@ -11216,7 +11214,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40299</v>
@@ -11241,7 +11239,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -11268,7 +11266,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>248</v>
@@ -11285,7 +11283,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40360</v>
@@ -11312,7 +11310,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>55</v>
@@ -11331,7 +11329,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>250</v>
@@ -11348,7 +11346,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40391</v>
@@ -11375,7 +11373,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11392,7 +11390,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>40422</v>
@@ -11419,7 +11417,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>252</v>
@@ -11436,7 +11434,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40452</v>
@@ -11457,7 +11455,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f t="shared" si="15"/>
         <v>40483</v>
@@ -11484,7 +11482,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" si="15"/>
         <v>40513</v>
@@ -11509,7 +11507,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="48" t="s">
         <v>255</v>
       </c>
@@ -11527,7 +11525,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>40544</v>
@@ -11552,7 +11550,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A346,1)</f>
         <v>40575</v>
@@ -11577,7 +11575,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -11594,7 +11592,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>40603</v>
@@ -11619,7 +11617,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>136</v>
@@ -11638,7 +11636,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>98</v>
@@ -11655,7 +11653,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>66</v>
@@ -11674,7 +11672,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <f>EDATE(A349,1)</f>
         <v>40634</v>
@@ -11699,7 +11697,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f t="shared" ref="A354:A365" si="16">EDATE(A353,1)</f>
         <v>40664</v>
@@ -11724,7 +11722,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>272</v>
@@ -11743,7 +11741,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>40695</v>
@@ -11768,7 +11766,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -11793,7 +11791,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>265</v>
@@ -11810,7 +11808,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40756</v>
@@ -11837,7 +11835,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>266</v>
@@ -11854,7 +11852,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>40787</v>
@@ -11881,7 +11879,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>267</v>
@@ -11898,7 +11896,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>40817</v>
@@ -11923,7 +11921,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="16"/>
         <v>40848</v>
@@ -11948,7 +11946,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <f t="shared" si="16"/>
         <v>40878</v>
@@ -11975,7 +11973,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>276</v>
@@ -11995,7 +11993,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="48" t="s">
         <v>275</v>
       </c>
@@ -12013,7 +12011,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>40909</v>
@@ -12038,7 +12036,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12063,7 +12061,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>279</v>
@@ -12080,7 +12078,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40969</v>
@@ -12105,7 +12103,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A385" si="17">EDATE(A371,1)</f>
         <v>41000</v>
@@ -12130,7 +12128,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12147,7 +12145,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41030</v>
@@ -12172,7 +12170,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12189,7 +12187,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>41061</v>
@@ -12216,7 +12214,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -12243,7 +12241,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>55</v>
@@ -12262,7 +12260,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>88</v>
@@ -12279,7 +12277,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>41122</v>
@@ -12306,7 +12304,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="15" t="s">
         <v>55</v>
@@ -12325,7 +12323,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="15" t="s">
         <v>190</v>
@@ -12342,7 +12340,7 @@
       <c r="J382" s="12"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>41153</v>
@@ -12367,7 +12365,7 @@
       <c r="J383" s="12"/>
       <c r="K383" s="15"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f t="shared" si="17"/>
         <v>41183</v>
@@ -12392,7 +12390,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" si="17"/>
         <v>41214</v>
@@ -12419,7 +12417,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>285</v>
@@ -12436,7 +12434,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>41244</v>
@@ -12461,7 +12459,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="48" t="s">
         <v>287</v>
       </c>
@@ -12479,7 +12477,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>41275</v>
@@ -12504,7 +12502,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>288</v>
@@ -12521,7 +12519,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>41306</v>
@@ -12546,7 +12544,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A408" si="18">EDATE(A391,1)</f>
         <v>41334</v>
@@ -12571,7 +12569,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>49</v>
@@ -12588,7 +12586,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>291</v>
@@ -12605,7 +12603,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41365</v>
@@ -12630,7 +12628,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <f t="shared" si="18"/>
         <v>41395</v>
@@ -12655,7 +12653,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -12682,7 +12680,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12701,7 +12699,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>296</v>
@@ -12718,7 +12716,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41456</v>
@@ -12743,7 +12741,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -12770,7 +12768,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>55</v>
@@ -12789,7 +12787,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>298</v>
@@ -12806,7 +12804,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>41518</v>
@@ -12833,7 +12831,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>299</v>
@@ -12850,7 +12848,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="49"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>41548</v>
@@ -12875,7 +12873,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
         <f t="shared" si="18"/>
         <v>41579</v>
@@ -12900,7 +12898,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -12927,7 +12925,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>302</v>
@@ -12947,7 +12945,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="48" t="s">
         <v>303</v>
       </c>
@@ -12965,7 +12963,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>41640</v>
@@ -12990,7 +12988,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>306</v>
@@ -13007,7 +13005,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>41671</v>
@@ -13034,7 +13032,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>307</v>
@@ -13051,7 +13049,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>41699</v>
@@ -13076,7 +13074,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <f t="shared" ref="A416:A427" si="19">EDATE(A415,1)</f>
         <v>41730</v>
@@ -13101,7 +13099,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -13128,7 +13126,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>190</v>
@@ -13145,7 +13143,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>41791</v>
@@ -13170,7 +13168,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -13195,7 +13193,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -13222,7 +13220,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>55</v>
@@ -13241,7 +13239,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>288</v>
@@ -13258,7 +13256,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <f>EDATE(A421,1)</f>
         <v>41883</v>
@@ -13283,7 +13281,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -13308,7 +13306,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -13333,7 +13331,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -13360,7 +13358,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>314</v>
@@ -13380,7 +13378,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="48" t="s">
         <v>316</v>
       </c>
@@ -13398,7 +13396,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <f>EDATE(A427,1)</f>
         <v>42005</v>
@@ -13423,7 +13421,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <f>EDATE(A430,1)</f>
         <v>42036</v>
@@ -13448,7 +13446,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>49</v>
@@ -13465,7 +13463,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13482,7 +13480,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>318</v>
@@ -13499,7 +13497,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <f>EDATE(A431,1)</f>
         <v>42064</v>
@@ -13524,7 +13522,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <f t="shared" ref="A436:A448" si="20">EDATE(A435,1)</f>
         <v>42095</v>
@@ -13551,7 +13549,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>323</v>
@@ -13568,7 +13566,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <f>EDATE(A436,1)</f>
         <v>42125</v>
@@ -13595,7 +13593,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>78</v>
@@ -13612,7 +13610,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42156</v>
@@ -13633,7 +13631,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -13658,7 +13656,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -13683,7 +13681,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -13708,7 +13706,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -13735,7 +13733,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>55</v>
@@ -13754,7 +13752,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>326</v>
@@ -13771,7 +13769,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="49"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>42309</v>
@@ -13796,7 +13794,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -13823,7 +13821,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>328</v>
@@ -13843,7 +13841,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="48" t="s">
         <v>330</v>
       </c>
@@ -13861,7 +13859,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <f>EDATE(A448,1)</f>
         <v>42370</v>
@@ -13888,7 +13886,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>331</v>
@@ -13905,7 +13903,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <f>EDATE(A451,1)</f>
         <v>42401</v>
@@ -13930,7 +13928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>55</v>
@@ -13949,7 +13947,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>55</v>
@@ -13968,7 +13966,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>94</v>
@@ -13985,7 +13983,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <f>EDATE(A453,1)</f>
         <v>42430</v>
@@ -14010,7 +14008,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A467" si="21">EDATE(A457,1)</f>
         <v>42461</v>
@@ -14035,7 +14033,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -14060,7 +14058,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -14085,7 +14083,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -14110,7 +14108,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -14137,7 +14135,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>339</v>
@@ -14154,7 +14152,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <f>EDATE(A462,1)</f>
         <v>42614</v>
@@ -14179,7 +14177,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -14204,7 +14202,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>42675</v>
@@ -14229,7 +14227,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -14256,7 +14254,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>344</v>
@@ -14276,7 +14274,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="48" t="s">
         <v>346</v>
       </c>
@@ -14294,7 +14292,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <f>EDATE(A467,1)</f>
         <v>42736</v>
@@ -14319,7 +14317,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <f>EDATE(A470,1)</f>
         <v>42767</v>
@@ -14344,7 +14342,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <f>EDATE(A471,1)</f>
         <v>42795</v>
@@ -14369,7 +14367,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <f t="shared" ref="A473:A487" si="22">EDATE(A472,1)</f>
         <v>42826</v>
@@ -14394,7 +14392,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -14421,7 +14419,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14438,7 +14436,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>69</v>
@@ -14455,7 +14453,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <f>EDATE(A474,1)</f>
         <v>42887</v>
@@ -14482,7 +14480,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>49</v>
@@ -14499,7 +14497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>352</v>
@@ -14516,7 +14514,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <f>EDATE(A477,1)</f>
         <v>42917</v>
@@ -14543,7 +14541,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>299</v>
@@ -14560,7 +14558,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="49"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>42948</v>
@@ -14587,7 +14585,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>354</v>
@@ -14604,7 +14602,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <f>EDATE(A482,1)</f>
         <v>42979</v>
@@ -14629,7 +14627,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -14654,7 +14652,7 @@
       <c r="J485" s="12"/>
       <c r="K485" s="15"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -14681,7 +14679,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -14708,7 +14706,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="48" t="s">
         <v>357</v>
       </c>
@@ -14726,7 +14724,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>43101</v>
@@ -14751,7 +14749,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <f>EDATE(A489,1)</f>
         <v>43132</v>
@@ -14772,7 +14770,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <f t="shared" ref="A491:A501" si="23">EDATE(A490,1)</f>
         <v>43160</v>
@@ -14799,7 +14797,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>49</v>
@@ -14816,7 +14814,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>43191</v>
@@ -14843,7 +14841,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -14864,7 +14862,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -14885,7 +14883,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -14912,7 +14910,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>66</v>
@@ -14931,7 +14929,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>43313</v>
@@ -14956,7 +14954,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -14983,7 +14981,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -15010,7 +15008,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>43405</v>
@@ -15031,7 +15029,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <f>EDATE(A501,1)</f>
         <v>43435</v>
@@ -15058,7 +15056,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="48" t="s">
         <v>366</v>
       </c>
@@ -15076,7 +15074,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>43466</v>
@@ -15097,7 +15095,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>43497</v>
@@ -15118,7 +15116,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <f t="shared" ref="A506:A517" si="24">EDATE(A505,1)</f>
         <v>43525</v>
@@ -15143,7 +15141,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>49</v>
@@ -15160,7 +15158,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15177,7 +15175,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <f>EDATE(A506,1)</f>
         <v>43556</v>
@@ -15198,7 +15196,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -15219,7 +15217,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -15246,7 +15244,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -15267,7 +15265,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -15288,7 +15286,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -15309,7 +15307,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -15330,7 +15328,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <f t="shared" si="24"/>
         <v>43770</v>
@@ -15351,7 +15349,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -15378,7 +15376,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>55</v>
@@ -15400,7 +15398,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="48" t="s">
         <v>371</v>
       </c>
@@ -15418,7 +15416,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="41">
         <f>EDATE(A517,1)</f>
         <v>43831</v>
@@ -15443,7 +15441,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>43862</v>
@@ -15464,7 +15462,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="40">
         <f t="shared" ref="A522:A532" si="25">EDATE(A521,1)</f>
         <v>43891</v>
@@ -15485,7 +15483,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -15506,7 +15504,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -15527,7 +15525,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -15548,7 +15546,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -15569,7 +15567,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -15590,7 +15588,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -15615,7 +15613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>158</v>
@@ -15632,7 +15630,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40">
         <f>EDATE(A528,1)</f>
         <v>44105</v>
@@ -15653,7 +15651,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -15674,7 +15672,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <f t="shared" si="25"/>
         <v>44166</v>
@@ -15701,7 +15699,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="48" t="s">
         <v>375</v>
       </c>
@@ -15719,7 +15717,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <f>EDATE(A532,1)</f>
         <v>44197</v>
@@ -15744,7 +15742,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40">
         <f>EDATE(A534,1)</f>
         <v>44228</v>
@@ -15771,7 +15769,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <f t="shared" ref="A536:A537" si="26">EDATE(A535,1)</f>
         <v>44256</v>
@@ -15792,7 +15790,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -15819,7 +15817,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <f>EDATE(A537,1)</f>
         <v>44317</v>
@@ -15840,7 +15838,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <f t="shared" ref="A539:A568" si="27">EDATE(A538,1)</f>
         <v>44348</v>
@@ -15861,7 +15859,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40">
         <f t="shared" si="27"/>
         <v>44378</v>
@@ -15882,7 +15880,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <f t="shared" si="27"/>
         <v>44409</v>
@@ -15903,7 +15901,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40">
         <f t="shared" si="27"/>
         <v>44440</v>
@@ -15924,7 +15922,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
         <f t="shared" si="27"/>
         <v>44470</v>
@@ -15945,7 +15943,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <f t="shared" si="27"/>
         <v>44501</v>
@@ -15966,7 +15964,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
         <f t="shared" si="27"/>
         <v>44531</v>
@@ -15991,7 +15989,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="48" t="s">
         <v>378</v>
       </c>
@@ -16009,7 +16007,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <f>EDATE(A545,1)</f>
         <v>44562</v>
@@ -16030,7 +16028,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f t="shared" si="27"/>
         <v>44593</v>
@@ -16051,7 +16049,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="27"/>
         <v>44621</v>
@@ -16072,7 +16070,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="27"/>
         <v>44652</v>
@@ -16093,7 +16091,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f t="shared" si="27"/>
         <v>44682</v>
@@ -16114,7 +16112,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f t="shared" si="27"/>
         <v>44713</v>
@@ -16135,7 +16133,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" si="27"/>
         <v>44743</v>
@@ -16156,7 +16154,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <f t="shared" si="27"/>
         <v>44774</v>
@@ -16177,7 +16175,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40">
         <f t="shared" si="27"/>
         <v>44805</v>
@@ -16202,7 +16200,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <f t="shared" si="27"/>
         <v>44835</v>
@@ -16223,7 +16221,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="27"/>
         <v>44866</v>
@@ -16244,7 +16242,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f t="shared" si="27"/>
         <v>44896</v>
@@ -16271,7 +16269,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="48" t="s">
         <v>379</v>
       </c>
@@ -16289,7 +16287,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f>EDATE(A558,1)</f>
         <v>44927</v>
@@ -16310,7 +16308,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="27"/>
         <v>44958</v>
@@ -16331,7 +16329,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f t="shared" si="27"/>
         <v>44986</v>
@@ -16352,7 +16350,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f t="shared" si="27"/>
         <v>45017</v>
@@ -16371,7 +16369,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="27"/>
         <v>45047</v>
@@ -16390,7 +16388,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" si="27"/>
         <v>45078</v>
@@ -16409,7 +16407,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="27"/>
         <v>45108</v>
@@ -16428,7 +16426,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <f t="shared" si="27"/>
         <v>45139</v>
@@ -16447,7 +16445,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40">
         <f t="shared" si="27"/>
         <v>45170</v>
@@ -16466,7 +16464,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16482,7 +16480,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16498,7 +16496,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16514,7 +16512,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16530,7 +16528,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16546,7 +16544,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16562,7 +16560,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16578,7 +16576,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16594,7 +16592,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16610,7 +16608,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16626,7 +16624,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16642,7 +16640,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16658,7 +16656,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16674,7 +16672,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16690,7 +16688,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16706,7 +16704,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16722,7 +16720,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16738,7 +16736,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16754,7 +16752,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16770,7 +16768,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16786,7 +16784,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16802,7 +16800,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16818,7 +16816,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16834,7 +16832,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16850,7 +16848,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16866,7 +16864,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16882,7 +16880,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16898,7 +16896,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16914,7 +16912,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16930,7 +16928,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16946,7 +16944,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16962,7 +16960,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16978,7 +16976,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16994,7 +16992,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17010,7 +17008,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17026,7 +17024,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17042,7 +17040,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17058,7 +17056,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17074,7 +17072,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17090,7 +17088,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17106,7 +17104,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17122,7 +17120,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17138,7 +17136,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17154,7 +17152,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17170,7 +17168,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17186,7 +17184,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17202,7 +17200,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17218,7 +17216,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17234,7 +17232,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17250,7 +17248,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17266,7 +17264,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17282,7 +17280,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17298,7 +17296,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17314,7 +17312,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="41"/>
       <c r="B622" s="15"/>
       <c r="C622" s="42"/>
@@ -17345,10 +17343,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17371,29 +17369,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
@@ -17406,7 +17404,7 @@
       <c r="K1" s="64"/>
       <c r="L1" s="64"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17435,13 +17433,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>0.625</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0.625</v>
-      </c>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -17465,17 +17459,20 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>382</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17496,7 +17493,11 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>387.01</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17523,7 +17524,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17549,7 +17550,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17575,7 +17576,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17601,7 +17602,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17627,7 +17628,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17653,7 +17654,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17705,7 +17706,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17725,7 +17726,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17745,7 +17746,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17765,7 +17766,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17786,7 +17787,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17807,7 +17808,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17828,7 +17829,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17849,7 +17850,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17891,7 +17892,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17912,7 +17913,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17954,7 +17955,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17975,7 +17976,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17996,7 +17997,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18017,7 +18018,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18038,7 +18039,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18059,7 +18060,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18080,7 +18081,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18101,7 +18102,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18122,7 +18123,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18143,7 +18144,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18164,7 +18165,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18185,7 +18186,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18194,7 +18195,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18203,7 +18204,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18212,7 +18213,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18221,7 +18222,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18230,7 +18231,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18239,7 +18240,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18248,7 +18249,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18257,7 +18258,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18266,7 +18267,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18275,7 +18276,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18284,7 +18285,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18293,7 +18294,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18302,7 +18303,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18311,7 +18312,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18320,7 +18321,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18329,7 +18330,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18338,7 +18339,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18347,7 +18348,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18356,7 +18357,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18365,7 +18366,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18374,7 +18375,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18383,7 +18384,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18392,7 +18393,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18401,7 +18402,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18410,7 +18411,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18419,7 +18420,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18428,7 +18429,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18437,7 +18438,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18446,7 +18447,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571897AD-F9B7-4CE4-B03E-C577D3EC8F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="384">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1184,12 +1183,15 @@
   </si>
   <si>
     <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1427,7 +1429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1579,6 +1581,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2065,7 +2070,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2113,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2172,7 +2177,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2237,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2298,7 +2303,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2366,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2464,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2518,7 +2523,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2583,7 +2588,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2631,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2701,7 +2706,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2887,7 +2892,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2953,7 +2958,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3011,7 +3016,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3077,7 +3082,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3133,7 +3138,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3208,7 +3213,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3251,7 +3256,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3317,7 +3322,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3373,7 +3378,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3471,7 +3476,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3534,7 +3539,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3600,25 +3605,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3630,13 +3635,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3645,14 +3650,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3956,7 +3961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3966,7 +3971,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3974,95 +3979,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A548" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="K565" sqref="K565"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="54"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="61" t="s">
+      <c r="F2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="59"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="54"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="60"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4070,7 +4075,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4083,24 +4088,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4144,7 +4149,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>151.38499999999999</v>
+        <v>152.63499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4154,12 +4159,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>235.625</v>
+        <v>236.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>45</v>
       </c>
@@ -4181,7 +4186,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34866</v>
       </c>
@@ -4203,7 +4208,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>34881</v>
       </c>
@@ -4223,7 +4228,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f>EDATE(A12,1)</f>
         <v>34912</v>
@@ -4244,7 +4249,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" ref="A14:A17" si="0">EDATE(A13,1)</f>
         <v>34943</v>
@@ -4265,7 +4270,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>34973</v>
@@ -4286,7 +4291,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35004</v>
@@ -4307,7 +4312,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35034</v>
@@ -4328,7 +4333,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
         <v>47</v>
       </c>
@@ -4346,7 +4351,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <f>EDATE(A17,1)</f>
         <v>35065</v>
@@ -4367,7 +4372,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35096</v>
@@ -4388,7 +4393,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A29" si="1">EDATE(A20,1)</f>
         <v>35125</v>
@@ -4409,7 +4414,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <f t="shared" si="1"/>
         <v>35156</v>
@@ -4434,7 +4439,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f t="shared" si="1"/>
         <v>35186</v>
@@ -4455,7 +4460,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35217</v>
@@ -4476,7 +4481,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35247</v>
@@ -4497,7 +4502,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f>EDATE(A25,1)</f>
         <v>35278</v>
@@ -4518,7 +4523,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35309</v>
@@ -4543,7 +4548,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>35339</v>
@@ -4564,7 +4569,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35370</v>
@@ -4589,7 +4594,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35400</v>
@@ -4610,7 +4615,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>52</v>
       </c>
@@ -4625,7 +4630,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <f>EDATE(A30,1)</f>
         <v>35431</v>
@@ -4646,7 +4651,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <f>EDATE(A32,1)</f>
         <v>35462</v>
@@ -4673,7 +4678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <f t="shared" ref="A34:A44" si="2">EDATE(A33,1)</f>
         <v>35490</v>
@@ -4700,7 +4705,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f t="shared" si="2"/>
         <v>35521</v>
@@ -4721,7 +4726,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" si="2"/>
         <v>35551</v>
@@ -4742,7 +4747,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>35582</v>
@@ -4763,7 +4768,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>35612</v>
@@ -4784,7 +4789,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35643</v>
@@ -4805,7 +4810,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>35674</v>
@@ -4830,7 +4835,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>55</v>
@@ -4849,7 +4854,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f>EDATE(A40,1)</f>
         <v>35704</v>
@@ -4870,7 +4875,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f>EDATE(A42,1)</f>
         <v>35735</v>
@@ -4897,7 +4902,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>35765</v>
@@ -4922,7 +4927,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>58</v>
       </c>
@@ -4940,7 +4945,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <f>EDATE(A44,1)</f>
         <v>35796</v>
@@ -4961,7 +4966,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <f>EDATE(A46,1)</f>
         <v>35827</v>
@@ -4988,7 +4993,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>59</v>
@@ -5007,7 +5012,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A47,1)</f>
         <v>35855</v>
@@ -5028,7 +5033,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A61" si="3">EDATE(A49,1)</f>
         <v>35886</v>
@@ -5049,7 +5054,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>35916</v>
@@ -5074,7 +5079,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>35947</v>
@@ -5101,7 +5106,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>65</v>
@@ -5118,7 +5123,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f>EDATE(A52,1)</f>
         <v>35977</v>
@@ -5145,7 +5150,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>68</v>
@@ -5162,7 +5167,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f>EDATE(A54,1)</f>
         <v>36008</v>
@@ -5187,7 +5192,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f>EDATE(A56,1)</f>
         <v>36039</v>
@@ -5210,7 +5215,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>66</v>
@@ -5231,7 +5236,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>72</v>
@@ -5248,7 +5253,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <f>EDATE(A57,1)</f>
         <v>36069</v>
@@ -5273,7 +5278,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <f t="shared" si="3"/>
         <v>36100</v>
@@ -5300,7 +5305,7 @@
         <v>45239</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>74</v>
@@ -5317,7 +5322,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f>EDATE(A61,1)</f>
         <v>36130</v>
@@ -5342,7 +5347,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>76</v>
       </c>
@@ -5360,7 +5365,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f>EDATE(A63,1)</f>
         <v>36161</v>
@@ -5387,7 +5392,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>78</v>
@@ -5404,7 +5409,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f>EDATE(A65,1)</f>
         <v>36192</v>
@@ -5431,7 +5436,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>79</v>
@@ -5448,7 +5453,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f>EDATE(A67,1)</f>
         <v>36220</v>
@@ -5473,7 +5478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>66</v>
@@ -5492,7 +5497,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>83</v>
@@ -5509,7 +5514,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f>EDATE(A69,1)</f>
         <v>36251</v>
@@ -5530,7 +5535,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <f t="shared" ref="A73:A85" si="4">EDATE(A72,1)</f>
         <v>36281</v>
@@ -5557,7 +5562,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>69</v>
@@ -5574,7 +5579,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <f>EDATE(A73,1)</f>
         <v>36312</v>
@@ -5601,7 +5606,7 @@
         <v>45078</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>66</v>
@@ -5620,7 +5625,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>83</v>
@@ -5637,7 +5642,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f>EDATE(A75,1)</f>
         <v>36342</v>
@@ -5662,7 +5667,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>36373</v>
@@ -5687,7 +5692,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>36404</v>
@@ -5714,7 +5719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>55</v>
@@ -5733,7 +5738,7 @@
         <v>45183</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>55</v>
@@ -5752,7 +5757,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
         <v>88</v>
@@ -5769,7 +5774,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f>EDATE(A80,1)</f>
         <v>36434</v>
@@ -5794,7 +5799,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f t="shared" si="4"/>
         <v>36465</v>
@@ -5821,7 +5826,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>55</v>
@@ -5840,7 +5845,7 @@
         <v>45237</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>91</v>
@@ -5857,7 +5862,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <f>EDATE(A85,1)</f>
         <v>36495</v>
@@ -5884,7 +5889,7 @@
         <v>45269</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>49</v>
@@ -5901,7 +5906,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>48</v>
@@ -5921,7 +5926,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>94</v>
@@ -5941,7 +5946,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="48" t="s">
         <v>95</v>
       </c>
@@ -5959,7 +5964,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f>EDATE(A88,1)</f>
         <v>36526</v>
@@ -5984,7 +5989,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>49</v>
@@ -6004,7 +6009,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f>EDATE(A93,1)</f>
         <v>36557</v>
@@ -6031,7 +6036,7 @@
         <v>44961</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>98</v>
@@ -6048,7 +6053,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f>EDATE(A95,1)</f>
         <v>36586</v>
@@ -6073,7 +6078,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>102</v>
@@ -6092,7 +6097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>49</v>
@@ -6109,7 +6114,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>68</v>
@@ -6126,7 +6131,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <f>EDATE(A97,1)</f>
         <v>36617</v>
@@ -6153,7 +6158,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>104</v>
@@ -6170,7 +6175,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f>EDATE(A101,1)</f>
         <v>36647</v>
@@ -6197,7 +6202,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" ref="A104:A113" si="5">EDATE(A103,1)</f>
         <v>36678</v>
@@ -6218,7 +6223,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="5"/>
         <v>36708</v>
@@ -6243,7 +6248,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="5"/>
         <v>36739</v>
@@ -6270,7 +6275,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>106</v>
@@ -6287,7 +6292,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>87</v>
@@ -6304,7 +6309,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f>EDATE(A106,1)</f>
         <v>36770</v>
@@ -6331,7 +6336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>109</v>
@@ -6348,7 +6353,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f>EDATE(A109,1)</f>
         <v>36800</v>
@@ -6373,7 +6378,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f t="shared" si="5"/>
         <v>36831</v>
@@ -6398,7 +6403,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <f t="shared" si="5"/>
         <v>36861</v>
@@ -6425,7 +6430,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20" t="s">
         <v>112</v>
@@ -6442,7 +6447,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>96</v>
       </c>
@@ -6460,7 +6465,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A113,1)</f>
         <v>36892</v>
@@ -6485,7 +6490,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -6502,7 +6507,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f>EDATE(A116,1)</f>
         <v>36923</v>
@@ -6527,7 +6532,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>59</v>
@@ -6544,7 +6549,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f>EDATE(A118,1)</f>
         <v>36951</v>
@@ -6571,7 +6576,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>55</v>
@@ -6590,7 +6595,7 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>49</v>
@@ -6607,7 +6612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f>EDATE(A120,1)</f>
         <v>36982</v>
@@ -6628,7 +6633,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" ref="A124:A131" si="6">EDATE(A123,1)</f>
         <v>37012</v>
@@ -6655,7 +6660,7 @@
         <v>45075</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20" t="s">
         <v>68</v>
@@ -6672,7 +6677,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f>EDATE(A124,1)</f>
         <v>37043</v>
@@ -6697,7 +6702,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="6"/>
         <v>37073</v>
@@ -6718,7 +6723,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <f t="shared" si="6"/>
         <v>37104</v>
@@ -6743,7 +6748,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <f t="shared" si="6"/>
         <v>37135</v>
@@ -6770,7 +6775,7 @@
         <v>45196</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f t="shared" si="6"/>
         <v>37165</v>
@@ -6797,7 +6802,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" si="6"/>
         <v>37196</v>
@@ -6824,7 +6829,7 @@
         <v>45250</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>98</v>
@@ -6841,7 +6846,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f>EDATE(A131,1)</f>
         <v>37226</v>
@@ -6866,7 +6871,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="48" t="s">
         <v>119</v>
       </c>
@@ -6884,7 +6889,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f>EDATE(A133,1)</f>
         <v>37257</v>
@@ -6911,7 +6916,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>55</v>
@@ -6930,7 +6935,7 @@
         <v>44954</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>120</v>
@@ -6947,7 +6952,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f>EDATE(A135,1)</f>
         <v>37288</v>
@@ -6972,7 +6977,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" ref="A139:A151" si="7">EDATE(A138,1)</f>
         <v>37316</v>
@@ -6997,7 +7002,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>37347</v>
@@ -7022,7 +7027,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>49</v>
@@ -7039,7 +7044,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <f>EDATE(A140,1)</f>
         <v>37377</v>
@@ -7066,7 +7071,7 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>66</v>
@@ -7083,7 +7088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f>EDATE(A142,1)</f>
         <v>37408</v>
@@ -7108,7 +7113,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="7"/>
         <v>37438</v>
@@ -7129,7 +7134,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="7"/>
         <v>37469</v>
@@ -7156,7 +7161,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>55</v>
@@ -7175,7 +7180,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f>EDATE(A146,1)</f>
         <v>37500</v>
@@ -7200,7 +7205,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="7"/>
         <v>37530</v>
@@ -7227,7 +7232,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <f t="shared" si="7"/>
         <v>37561</v>
@@ -7252,7 +7257,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f t="shared" si="7"/>
         <v>37591</v>
@@ -7277,7 +7282,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>86</v>
@@ -7294,7 +7299,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="48" t="s">
         <v>127</v>
       </c>
@@ -7312,7 +7317,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A151,1)</f>
         <v>37622</v>
@@ -7337,7 +7342,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <f>EDATE(A154,1)</f>
         <v>37653</v>
@@ -7362,7 +7367,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>49</v>
@@ -7379,7 +7384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A155,1)</f>
         <v>37681</v>
@@ -7406,7 +7411,7 @@
         <v>45003</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>49</v>
@@ -7423,7 +7428,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <f>EDATE(A157,1)</f>
         <v>37712</v>
@@ -7448,7 +7453,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>55</v>
@@ -7467,7 +7472,7 @@
         <v>45045</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f>EDATE(A159,1)</f>
         <v>37742</v>
@@ -7494,7 +7499,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" ref="A162:A163" si="8">EDATE(A161,1)</f>
         <v>37773</v>
@@ -7521,7 +7526,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <f t="shared" si="8"/>
         <v>37803</v>
@@ -7548,7 +7553,7 @@
         <v>45130</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>133</v>
@@ -7565,7 +7570,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A163,1)</f>
         <v>37834</v>
@@ -7592,7 +7597,7 @@
         <v>45164</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>105</v>
@@ -7609,7 +7614,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="49"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f>EDATE(A165,1)</f>
         <v>37865</v>
@@ -7636,7 +7641,7 @@
         <v>45195</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20" t="s">
         <v>105</v>
@@ -7653,7 +7658,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <f>EDATE(A167,1)</f>
         <v>37895</v>
@@ -7680,7 +7685,7 @@
         <v>45207</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>55</v>
@@ -7699,7 +7704,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>134</v>
@@ -7716,7 +7721,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f>EDATE(A169,1)</f>
         <v>37926</v>
@@ -7741,7 +7746,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <f>EDATE(A172,1)</f>
         <v>37956</v>
@@ -7768,7 +7773,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>136</v>
@@ -7788,7 +7793,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>138</v>
@@ -7805,7 +7810,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="48" t="s">
         <v>137</v>
       </c>
@@ -7823,7 +7828,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f>EDATE(A173,1)</f>
         <v>37987</v>
@@ -7848,7 +7853,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f>EDATE(A177,1)</f>
         <v>38018</v>
@@ -7873,7 +7878,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" ref="A179:A196" si="9">EDATE(A178,1)</f>
         <v>38047</v>
@@ -7900,7 +7905,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>66</v>
@@ -7919,7 +7924,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>49</v>
@@ -7936,7 +7941,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>112</v>
@@ -7953,7 +7958,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <f>EDATE(A179,1)</f>
         <v>38078</v>
@@ -7978,7 +7983,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f t="shared" si="9"/>
         <v>38108</v>
@@ -8005,7 +8010,7 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>143</v>
@@ -8025,7 +8030,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A184,1)</f>
         <v>38139</v>
@@ -8050,7 +8055,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>49</v>
@@ -8070,7 +8075,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <f>EDATE(A186,1)</f>
         <v>38169</v>
@@ -8095,7 +8100,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f t="shared" si="9"/>
         <v>38200</v>
@@ -8122,7 +8127,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20" t="s">
         <v>49</v>
@@ -8139,7 +8144,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>110</v>
@@ -8156,7 +8161,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="49"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f>EDATE(A189,1)</f>
         <v>38231</v>
@@ -8181,7 +8186,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="9"/>
         <v>38261</v>
@@ -8208,7 +8213,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>104</v>
@@ -8225,7 +8230,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="49"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f>EDATE(A193,1)</f>
         <v>38292</v>
@@ -8250,7 +8255,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="9"/>
         <v>38322</v>
@@ -8277,7 +8282,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>143</v>
@@ -8297,7 +8302,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>57</v>
@@ -8319,7 +8324,7 @@
         <v>45268</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="48" t="s">
         <v>148</v>
       </c>
@@ -8337,7 +8342,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A196,1)</f>
         <v>38353</v>
@@ -8362,7 +8367,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>106</v>
@@ -8379,7 +8384,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20" t="s">
         <v>49</v>
@@ -8396,7 +8401,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <f>EDATE(A200,1)</f>
         <v>38384</v>
@@ -8421,7 +8426,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f t="shared" ref="A204:A222" si="10">EDATE(A203,1)</f>
         <v>38412</v>
@@ -8448,7 +8453,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>151</v>
@@ -8465,7 +8470,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>38443</v>
@@ -8492,7 +8497,7 @@
         <v>45020</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20" t="s">
         <v>55</v>
@@ -8511,7 +8516,7 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>110</v>
@@ -8528,7 +8533,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <f>EDATE(A206,1)</f>
         <v>38473</v>
@@ -8553,7 +8558,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f t="shared" si="10"/>
         <v>38504</v>
@@ -8580,7 +8585,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20" t="s">
         <v>66</v>
@@ -8599,7 +8604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>87</v>
@@ -8616,7 +8621,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f>EDATE(A210,1)</f>
         <v>38534</v>
@@ -8641,7 +8646,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="10"/>
         <v>38565</v>
@@ -8666,7 +8671,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="10"/>
         <v>38596</v>
@@ -8693,7 +8698,7 @@
         <v>45184</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>49</v>
@@ -8710,7 +8715,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>152</v>
@@ -8727,7 +8732,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <f>EDATE(A215,1)</f>
         <v>38626</v>
@@ -8754,7 +8759,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>154</v>
@@ -8771,7 +8776,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>158</v>
@@ -8788,7 +8793,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f>EDATE(A218,1)</f>
         <v>38657</v>
@@ -8813,7 +8818,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="10"/>
         <v>38687</v>
@@ -8840,7 +8845,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>162</v>
@@ -8860,7 +8865,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="48" t="s">
         <v>161</v>
       </c>
@@ -8878,7 +8883,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f>EDATE(A222,1)</f>
         <v>38718</v>
@@ -8905,7 +8910,7 @@
         <v>44930</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>158</v>
@@ -8922,7 +8927,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>163</v>
@@ -8939,7 +8944,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <f>EDATE(A225,1)</f>
         <v>38749</v>
@@ -8964,7 +8969,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>165</v>
@@ -8981,7 +8986,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A228,1)</f>
         <v>38777</v>
@@ -9008,7 +9013,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>55</v>
@@ -9027,7 +9032,7 @@
         <v>45006</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>55</v>
@@ -9046,7 +9051,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>55</v>
@@ -9065,7 +9070,7 @@
         <v>45019</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>66</v>
@@ -9084,7 +9089,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>167</v>
@@ -9101,7 +9106,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <f>EDATE(A230,1)</f>
         <v>38808</v>
@@ -9126,7 +9131,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f t="shared" ref="A237:A245" si="11">EDATE(A236,1)</f>
         <v>38838</v>
@@ -9153,7 +9158,7 @@
         <v>45077</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>170</v>
@@ -9170,7 +9175,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <f>EDATE(A237,1)</f>
         <v>38869</v>
@@ -9195,7 +9200,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f t="shared" si="11"/>
         <v>38899</v>
@@ -9222,7 +9227,7 @@
         <v>45070</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>171</v>
@@ -9239,7 +9244,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f>EDATE(A240,1)</f>
         <v>38930</v>
@@ -9264,7 +9269,7 @@
       <c r="J242" s="12"/>
       <c r="K242" s="15"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="11"/>
         <v>38961</v>
@@ -9289,7 +9294,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="11"/>
         <v>38991</v>
@@ -9314,7 +9319,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="11"/>
         <v>39022</v>
@@ -9341,7 +9346,7 @@
         <v>45253</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>175</v>
@@ -9358,7 +9363,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <f>EDATE(A245,1)</f>
         <v>39052</v>
@@ -9383,7 +9388,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>178</v>
@@ -9403,7 +9408,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="48" t="s">
         <v>177</v>
       </c>
@@ -9421,7 +9426,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f>EDATE(A247,1)</f>
         <v>39083</v>
@@ -9446,7 +9451,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f>EDATE(A250,1)</f>
         <v>39114</v>
@@ -9473,7 +9478,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>136</v>
@@ -9492,7 +9497,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>180</v>
@@ -9509,7 +9514,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f>EDATE(A251,1)</f>
         <v>39142</v>
@@ -9534,7 +9539,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" ref="A255:A265" si="12">EDATE(A254,1)</f>
         <v>39173</v>
@@ -9559,7 +9564,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>49</v>
@@ -9576,7 +9581,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>182</v>
@@ -9593,7 +9598,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <f>EDATE(A255,1)</f>
         <v>39203</v>
@@ -9618,7 +9623,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f t="shared" si="12"/>
         <v>39234</v>
@@ -9645,7 +9650,7 @@
         <v>45102</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>190</v>
@@ -9662,7 +9667,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="49"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f>EDATE(A259,1)</f>
         <v>39264</v>
@@ -9689,7 +9694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>55</v>
@@ -9708,7 +9713,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>184</v>
@@ -9725,7 +9730,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A261,1)</f>
         <v>39295</v>
@@ -9750,7 +9755,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" si="12"/>
         <v>39326</v>
@@ -9777,7 +9782,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>55</v>
@@ -9796,7 +9801,7 @@
         <v>45186</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>193</v>
@@ -9813,7 +9818,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f>EDATE(A265,1)</f>
         <v>39356</v>
@@ -9840,7 +9845,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>194</v>
@@ -9857,7 +9862,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f>EDATE(A268,1)</f>
         <v>39387</v>
@@ -9884,7 +9889,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>136</v>
@@ -9903,7 +9908,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40"/>
       <c r="B272" s="20" t="s">
         <v>196</v>
@@ -9920,7 +9925,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f>EDATE(A270,1)</f>
         <v>39417</v>
@@ -9945,7 +9950,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="48" t="s">
         <v>179</v>
       </c>
@@ -9963,7 +9968,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f>EDATE(A273,1)</f>
         <v>39448</v>
@@ -9990,7 +9995,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>202</v>
@@ -10007,7 +10012,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <f>EDATE(A275,1)</f>
         <v>39479</v>
@@ -10032,7 +10037,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>203</v>
@@ -10049,7 +10054,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f>EDATE(A277,1)</f>
         <v>39508</v>
@@ -10074,7 +10079,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <f t="shared" ref="A280:A291" si="13">EDATE(A279,1)</f>
         <v>39539</v>
@@ -10099,7 +10104,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>207</v>
@@ -10116,7 +10121,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f>EDATE(A280,1)</f>
         <v>39569</v>
@@ -10143,7 +10148,7 @@
         <v>45052</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>128</v>
@@ -10162,7 +10167,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>209</v>
@@ -10179,7 +10184,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="49"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f>EDATE(A282,1)</f>
         <v>39600</v>
@@ -10204,7 +10209,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <f t="shared" si="13"/>
         <v>39630</v>
@@ -10231,7 +10236,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>211</v>
@@ -10248,7 +10253,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A286,1)</f>
         <v>39661</v>
@@ -10275,7 +10280,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>212</v>
@@ -10292,7 +10297,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f>EDATE(A288,1)</f>
         <v>39692</v>
@@ -10317,7 +10322,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <f t="shared" si="13"/>
         <v>39722</v>
@@ -10344,7 +10349,7 @@
         <v>45213</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40"/>
       <c r="B292" s="20" t="s">
         <v>55</v>
@@ -10363,7 +10368,7 @@
         <v>45228</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>214</v>
@@ -10380,7 +10385,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f>EDATE(A291,1)</f>
         <v>39753</v>
@@ -10407,7 +10412,7 @@
         <v>45240</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>55</v>
@@ -10426,7 +10431,7 @@
         <v>45255</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>215</v>
@@ -10443,7 +10448,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f>EDATE(A294,1)</f>
         <v>39783</v>
@@ -10470,7 +10475,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="41"/>
       <c r="B298" s="15" t="s">
         <v>217</v>
@@ -10490,7 +10495,7 @@
       <c r="J298" s="12"/>
       <c r="K298" s="15"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="48" t="s">
         <v>220</v>
       </c>
@@ -10508,7 +10513,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f>EDATE(A297,1)</f>
         <v>39814</v>
@@ -10535,7 +10540,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>221</v>
@@ -10552,7 +10557,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f>EDATE(A300,1)</f>
         <v>39845</v>
@@ -10577,7 +10582,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" ref="A303:A318" si="14">EDATE(A302,1)</f>
         <v>39873</v>
@@ -10602,7 +10607,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>79</v>
@@ -10622,7 +10627,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <f>EDATE(A303,1)</f>
         <v>39904</v>
@@ -10647,7 +10652,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>225</v>
@@ -10667,7 +10672,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f>EDATE(A305,1)</f>
         <v>39934</v>
@@ -10694,7 +10699,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>49</v>
@@ -10711,7 +10716,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>226</v>
@@ -10728,7 +10733,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A307,1)</f>
         <v>39965</v>
@@ -10753,7 +10758,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="14"/>
         <v>39995</v>
@@ -10780,7 +10785,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>230</v>
@@ -10797,7 +10802,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f>EDATE(A311,1)</f>
         <v>40026</v>
@@ -10822,7 +10827,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="14"/>
         <v>40057</v>
@@ -10849,7 +10854,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>55</v>
@@ -10868,7 +10873,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>233</v>
@@ -10885,7 +10890,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <f>EDATE(A314,1)</f>
         <v>40087</v>
@@ -10910,7 +10915,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f t="shared" si="14"/>
         <v>40118</v>
@@ -10937,7 +10942,7 @@
         <v>45246</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>55</v>
@@ -10956,7 +10961,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>235</v>
@@ -10973,7 +10978,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A318,1)</f>
         <v>40148</v>
@@ -11000,7 +11005,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>236</v>
@@ -11020,7 +11025,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>59</v>
@@ -11042,7 +11047,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="48" t="s">
         <v>239</v>
       </c>
@@ -11060,7 +11065,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <f>EDATE(A321,1)</f>
         <v>40179</v>
@@ -11085,7 +11090,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>240</v>
@@ -11102,7 +11107,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A325,1)</f>
         <v>40210</v>
@@ -11127,7 +11132,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" ref="A328:A344" si="15">EDATE(A327,1)</f>
         <v>40238</v>
@@ -11152,7 +11157,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>243</v>
@@ -11172,7 +11177,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <f>EDATE(A328,1)</f>
         <v>40269</v>
@@ -11197,7 +11202,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40"/>
       <c r="B331" s="20" t="s">
         <v>246</v>
@@ -11214,7 +11219,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f>EDATE(A330,1)</f>
         <v>40299</v>
@@ -11239,7 +11244,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f t="shared" si="15"/>
         <v>40330</v>
@@ -11266,7 +11271,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>248</v>
@@ -11283,7 +11288,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f>EDATE(A333,1)</f>
         <v>40360</v>
@@ -11310,7 +11315,7 @@
         <v>45127</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>55</v>
@@ -11329,7 +11334,7 @@
         <v>45161</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>250</v>
@@ -11346,7 +11351,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <f>EDATE(A335,1)</f>
         <v>40391</v>
@@ -11373,7 +11378,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>251</v>
@@ -11390,7 +11395,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <f>EDATE(A338,1)</f>
         <v>40422</v>
@@ -11417,7 +11422,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>252</v>
@@ -11434,7 +11439,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <f>EDATE(A340,1)</f>
         <v>40452</v>
@@ -11455,7 +11460,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f t="shared" si="15"/>
         <v>40483</v>
@@ -11482,7 +11487,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" si="15"/>
         <v>40513</v>
@@ -11507,7 +11512,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="48" t="s">
         <v>255</v>
       </c>
@@ -11525,7 +11530,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <f>EDATE(A344,1)</f>
         <v>40544</v>
@@ -11550,7 +11555,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A346,1)</f>
         <v>40575</v>
@@ -11575,7 +11580,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>257</v>
@@ -11592,7 +11597,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <f>EDATE(A347,1)</f>
         <v>40603</v>
@@ -11617,7 +11622,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>136</v>
@@ -11636,7 +11641,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>98</v>
@@ -11653,7 +11658,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>66</v>
@@ -11672,7 +11677,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <f>EDATE(A349,1)</f>
         <v>40634</v>
@@ -11697,7 +11702,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f t="shared" ref="A354:A365" si="16">EDATE(A353,1)</f>
         <v>40664</v>
@@ -11722,7 +11727,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>272</v>
@@ -11741,7 +11746,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>40695</v>
@@ -11766,7 +11771,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="16"/>
         <v>40725</v>
@@ -11791,7 +11796,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>265</v>
@@ -11808,7 +11813,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <f>EDATE(A357,1)</f>
         <v>40756</v>
@@ -11835,7 +11840,7 @@
         <v>45143</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>266</v>
@@ -11852,7 +11857,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <f>EDATE(A359,1)</f>
         <v>40787</v>
@@ -11879,7 +11884,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>267</v>
@@ -11896,7 +11901,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f>EDATE(A361,1)</f>
         <v>40817</v>
@@ -11921,7 +11926,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="16"/>
         <v>40848</v>
@@ -11946,7 +11951,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <f t="shared" si="16"/>
         <v>40878</v>
@@ -11973,7 +11978,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>276</v>
@@ -11993,7 +11998,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="48" t="s">
         <v>275</v>
       </c>
@@ -12011,7 +12016,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f>EDATE(A365,1)</f>
         <v>40909</v>
@@ -12036,7 +12041,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f>EDATE(A368,1)</f>
         <v>40940</v>
@@ -12061,7 +12066,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>279</v>
@@ -12078,7 +12083,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f>EDATE(A369,1)</f>
         <v>40969</v>
@@ -12103,7 +12108,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <f t="shared" ref="A372:A385" si="17">EDATE(A371,1)</f>
         <v>41000</v>
@@ -12128,7 +12133,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>280</v>
@@ -12145,7 +12150,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f>EDATE(A372,1)</f>
         <v>41030</v>
@@ -12170,7 +12175,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40"/>
       <c r="B375" s="20" t="s">
         <v>281</v>
@@ -12187,7 +12192,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <f>EDATE(A374,1)</f>
         <v>41061</v>
@@ -12214,7 +12219,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <f t="shared" si="17"/>
         <v>41091</v>
@@ -12241,7 +12246,7 @@
         <v>45116</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>55</v>
@@ -12260,7 +12265,7 @@
         <v>45137</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>88</v>
@@ -12277,7 +12282,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f>EDATE(A377,1)</f>
         <v>41122</v>
@@ -12304,7 +12309,7 @@
         <v>45153</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="15" t="s">
         <v>55</v>
@@ -12323,7 +12328,7 @@
         <v>45194</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40"/>
       <c r="B382" s="15" t="s">
         <v>190</v>
@@ -12340,7 +12345,7 @@
       <c r="J382" s="12"/>
       <c r="K382" s="15"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <f>EDATE(A380,1)</f>
         <v>41153</v>
@@ -12365,7 +12370,7 @@
       <c r="J383" s="12"/>
       <c r="K383" s="15"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f t="shared" si="17"/>
         <v>41183</v>
@@ -12390,7 +12395,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" si="17"/>
         <v>41214</v>
@@ -12417,7 +12422,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>285</v>
@@ -12434,7 +12439,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f>EDATE(A385,1)</f>
         <v>41244</v>
@@ -12459,7 +12464,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="48" t="s">
         <v>287</v>
       </c>
@@ -12477,7 +12482,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f>EDATE(A387,1)</f>
         <v>41275</v>
@@ -12502,7 +12507,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40"/>
       <c r="B390" s="20" t="s">
         <v>288</v>
@@ -12519,7 +12524,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f>EDATE(A389,1)</f>
         <v>41306</v>
@@ -12544,7 +12549,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f t="shared" ref="A392:A408" si="18">EDATE(A391,1)</f>
         <v>41334</v>
@@ -12569,7 +12574,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>49</v>
@@ -12586,7 +12591,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>291</v>
@@ -12603,7 +12608,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A392,1)</f>
         <v>41365</v>
@@ -12628,7 +12633,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <f t="shared" si="18"/>
         <v>41395</v>
@@ -12653,7 +12658,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <f t="shared" si="18"/>
         <v>41426</v>
@@ -12680,7 +12685,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>55</v>
@@ -12699,7 +12704,7 @@
         <v>45138</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>296</v>
@@ -12716,7 +12721,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f>EDATE(A397,1)</f>
         <v>41456</v>
@@ -12741,7 +12746,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="18"/>
         <v>41487</v>
@@ -12768,7 +12773,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>55</v>
@@ -12787,7 +12792,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>298</v>
@@ -12804,7 +12809,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <f>EDATE(A401,1)</f>
         <v>41518</v>
@@ -12831,7 +12836,7 @@
         <v>45192</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>299</v>
@@ -12848,7 +12853,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="49"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <f>EDATE(A404,1)</f>
         <v>41548</v>
@@ -12873,7 +12878,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <f t="shared" si="18"/>
         <v>41579</v>
@@ -12898,7 +12903,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <f t="shared" si="18"/>
         <v>41609</v>
@@ -12925,7 +12930,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>302</v>
@@ -12945,7 +12950,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="48" t="s">
         <v>303</v>
       </c>
@@ -12963,7 +12968,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <f>EDATE(A408,1)</f>
         <v>41640</v>
@@ -12988,7 +12993,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>306</v>
@@ -13005,7 +13010,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <f>EDATE(A411,1)</f>
         <v>41671</v>
@@ -13032,7 +13037,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>307</v>
@@ -13049,7 +13054,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <f>EDATE(A413,1)</f>
         <v>41699</v>
@@ -13074,7 +13079,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <f t="shared" ref="A416:A427" si="19">EDATE(A415,1)</f>
         <v>41730</v>
@@ -13099,7 +13104,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <f t="shared" si="19"/>
         <v>41760</v>
@@ -13126,7 +13131,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>190</v>
@@ -13143,7 +13148,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f>EDATE(A417,1)</f>
         <v>41791</v>
@@ -13168,7 +13173,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="19"/>
         <v>41821</v>
@@ -13193,7 +13198,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="19"/>
         <v>41852</v>
@@ -13220,7 +13225,7 @@
         <v>45170</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>55</v>
@@ -13239,7 +13244,7 @@
         <v>45214</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>288</v>
@@ -13256,7 +13261,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <f>EDATE(A421,1)</f>
         <v>41883</v>
@@ -13281,7 +13286,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <f t="shared" si="19"/>
         <v>41913</v>
@@ -13306,7 +13311,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <f t="shared" si="19"/>
         <v>41944</v>
@@ -13331,7 +13336,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <f t="shared" si="19"/>
         <v>41974</v>
@@ -13358,7 +13363,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>314</v>
@@ -13378,7 +13383,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="48" t="s">
         <v>316</v>
       </c>
@@ -13396,7 +13401,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <f>EDATE(A427,1)</f>
         <v>42005</v>
@@ -13421,7 +13426,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <f>EDATE(A430,1)</f>
         <v>42036</v>
@@ -13446,7 +13451,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>49</v>
@@ -13463,7 +13468,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -13480,7 +13485,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40"/>
       <c r="B434" s="20" t="s">
         <v>318</v>
@@ -13497,7 +13502,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <f>EDATE(A431,1)</f>
         <v>42064</v>
@@ -13522,7 +13527,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <f t="shared" ref="A436:A448" si="20">EDATE(A435,1)</f>
         <v>42095</v>
@@ -13549,7 +13554,7 @@
         <v>45026</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20" t="s">
         <v>323</v>
@@ -13566,7 +13571,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <f>EDATE(A436,1)</f>
         <v>42125</v>
@@ -13593,7 +13598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>78</v>
@@ -13610,7 +13615,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <f>EDATE(A438,1)</f>
         <v>42156</v>
@@ -13631,7 +13636,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <f t="shared" si="20"/>
         <v>42186</v>
@@ -13656,7 +13661,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <f t="shared" si="20"/>
         <v>42217</v>
@@ -13681,7 +13686,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <f t="shared" si="20"/>
         <v>42248</v>
@@ -13706,7 +13711,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <f t="shared" si="20"/>
         <v>42278</v>
@@ -13733,7 +13738,7 @@
         <v>45218</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>55</v>
@@ -13752,7 +13757,7 @@
         <v>45227</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>326</v>
@@ -13769,7 +13774,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="49"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <f>EDATE(A444,1)</f>
         <v>42309</v>
@@ -13794,7 +13799,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <f t="shared" si="20"/>
         <v>42339</v>
@@ -13821,7 +13826,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>328</v>
@@ -13841,7 +13846,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="48" t="s">
         <v>330</v>
       </c>
@@ -13859,7 +13864,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <f>EDATE(A448,1)</f>
         <v>42370</v>
@@ -13886,7 +13891,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>331</v>
@@ -13903,7 +13908,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <f>EDATE(A451,1)</f>
         <v>42401</v>
@@ -13928,7 +13933,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40"/>
       <c r="B454" s="20" t="s">
         <v>55</v>
@@ -13947,7 +13952,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>55</v>
@@ -13966,7 +13971,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>94</v>
@@ -13983,7 +13988,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <f>EDATE(A453,1)</f>
         <v>42430</v>
@@ -14008,7 +14013,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <f t="shared" ref="A458:A467" si="21">EDATE(A457,1)</f>
         <v>42461</v>
@@ -14033,7 +14038,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <f t="shared" si="21"/>
         <v>42491</v>
@@ -14058,7 +14063,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <f t="shared" si="21"/>
         <v>42522</v>
@@ -14083,7 +14088,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <f t="shared" si="21"/>
         <v>42552</v>
@@ -14108,7 +14113,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <f t="shared" si="21"/>
         <v>42583</v>
@@ -14135,7 +14140,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>339</v>
@@ -14152,7 +14157,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <f>EDATE(A462,1)</f>
         <v>42614</v>
@@ -14177,7 +14182,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <f t="shared" si="21"/>
         <v>42644</v>
@@ -14202,7 +14207,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <f>EDATE(A465,1)</f>
         <v>42675</v>
@@ -14227,7 +14232,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <f t="shared" si="21"/>
         <v>42705</v>
@@ -14254,7 +14259,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40"/>
       <c r="B468" s="20" t="s">
         <v>344</v>
@@ -14274,7 +14279,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="48" t="s">
         <v>346</v>
       </c>
@@ -14292,7 +14297,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <f>EDATE(A467,1)</f>
         <v>42736</v>
@@ -14317,7 +14322,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <f>EDATE(A470,1)</f>
         <v>42767</v>
@@ -14342,7 +14347,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <f>EDATE(A471,1)</f>
         <v>42795</v>
@@ -14367,7 +14372,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <f t="shared" ref="A473:A487" si="22">EDATE(A472,1)</f>
         <v>42826</v>
@@ -14392,7 +14397,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <f t="shared" si="22"/>
         <v>42856</v>
@@ -14419,7 +14424,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>49</v>
@@ -14436,7 +14441,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>69</v>
@@ -14453,7 +14458,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <f>EDATE(A474,1)</f>
         <v>42887</v>
@@ -14480,7 +14485,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40"/>
       <c r="B478" s="20" t="s">
         <v>49</v>
@@ -14497,7 +14502,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>352</v>
@@ -14514,7 +14519,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <f>EDATE(A477,1)</f>
         <v>42917</v>
@@ -14541,7 +14546,7 @@
         <v>45125</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>299</v>
@@ -14558,7 +14563,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="49"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <f>EDATE(A480,1)</f>
         <v>42948</v>
@@ -14585,7 +14590,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40"/>
       <c r="B483" s="20" t="s">
         <v>354</v>
@@ -14602,7 +14607,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <f>EDATE(A482,1)</f>
         <v>42979</v>
@@ -14627,7 +14632,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <f t="shared" si="22"/>
         <v>43009</v>
@@ -14652,7 +14657,7 @@
       <c r="J485" s="12"/>
       <c r="K485" s="15"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <f t="shared" si="22"/>
         <v>43040</v>
@@ -14679,7 +14684,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <f t="shared" si="22"/>
         <v>43070</v>
@@ -14706,7 +14711,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="48" t="s">
         <v>357</v>
       </c>
@@ -14724,7 +14729,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <f>EDATE(A487,1)</f>
         <v>43101</v>
@@ -14749,7 +14754,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <f>EDATE(A489,1)</f>
         <v>43132</v>
@@ -14770,7 +14775,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <f t="shared" ref="A491:A501" si="23">EDATE(A490,1)</f>
         <v>43160</v>
@@ -14797,7 +14802,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40"/>
       <c r="B492" s="20" t="s">
         <v>49</v>
@@ -14814,7 +14819,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <f>EDATE(A491,1)</f>
         <v>43191</v>
@@ -14841,7 +14846,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <f t="shared" si="23"/>
         <v>43221</v>
@@ -14862,7 +14867,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <f t="shared" si="23"/>
         <v>43252</v>
@@ -14883,7 +14888,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <f t="shared" si="23"/>
         <v>43282</v>
@@ -14910,7 +14915,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>66</v>
@@ -14929,7 +14934,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <f>EDATE(A496,1)</f>
         <v>43313</v>
@@ -14954,7 +14959,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <f t="shared" si="23"/>
         <v>43344</v>
@@ -14981,7 +14986,7 @@
         <v>45197</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <f t="shared" si="23"/>
         <v>43374</v>
@@ -15008,7 +15013,7 @@
         <v>45229</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <f t="shared" si="23"/>
         <v>43405</v>
@@ -15029,7 +15034,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <f>EDATE(A501,1)</f>
         <v>43435</v>
@@ -15056,7 +15061,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="48" t="s">
         <v>366</v>
       </c>
@@ -15074,7 +15079,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <f>EDATE(A502,1)</f>
         <v>43466</v>
@@ -15095,7 +15100,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <f>EDATE(A504,1)</f>
         <v>43497</v>
@@ -15116,7 +15121,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <f t="shared" ref="A506:A517" si="24">EDATE(A505,1)</f>
         <v>43525</v>
@@ -15141,7 +15146,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>49</v>
@@ -15158,7 +15163,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>49</v>
@@ -15175,7 +15180,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <f>EDATE(A506,1)</f>
         <v>43556</v>
@@ -15196,7 +15201,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <f t="shared" si="24"/>
         <v>43586</v>
@@ -15217,7 +15222,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <f t="shared" si="24"/>
         <v>43617</v>
@@ -15244,7 +15249,7 @@
         <v>45103</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <f t="shared" si="24"/>
         <v>43647</v>
@@ -15265,7 +15270,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <f t="shared" si="24"/>
         <v>43678</v>
@@ -15286,7 +15291,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <f t="shared" si="24"/>
         <v>43709</v>
@@ -15307,7 +15312,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <f t="shared" si="24"/>
         <v>43739</v>
@@ -15328,7 +15333,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <f t="shared" si="24"/>
         <v>43770</v>
@@ -15349,7 +15354,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <f t="shared" si="24"/>
         <v>43800</v>
@@ -15376,7 +15381,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20" t="s">
         <v>55</v>
@@ -15398,7 +15403,7 @@
         <v>45266</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="48" t="s">
         <v>371</v>
       </c>
@@ -15416,7 +15421,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="41">
         <f>EDATE(A517,1)</f>
         <v>43831</v>
@@ -15441,7 +15446,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <f>EDATE(A520,1)</f>
         <v>43862</v>
@@ -15462,7 +15467,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <f t="shared" ref="A522:A532" si="25">EDATE(A521,1)</f>
         <v>43891</v>
@@ -15483,7 +15488,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <f t="shared" si="25"/>
         <v>43922</v>
@@ -15504,7 +15509,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <f t="shared" si="25"/>
         <v>43952</v>
@@ -15525,7 +15530,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <f t="shared" si="25"/>
         <v>43983</v>
@@ -15546,7 +15551,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <f t="shared" si="25"/>
         <v>44013</v>
@@ -15567,7 +15572,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <f t="shared" si="25"/>
         <v>44044</v>
@@ -15588,7 +15593,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <f t="shared" si="25"/>
         <v>44075</v>
@@ -15613,7 +15618,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>158</v>
@@ -15630,7 +15635,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <f>EDATE(A528,1)</f>
         <v>44105</v>
@@ -15651,7 +15656,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <f t="shared" si="25"/>
         <v>44136</v>
@@ -15672,7 +15677,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <f t="shared" si="25"/>
         <v>44166</v>
@@ -15699,7 +15704,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="48" t="s">
         <v>375</v>
       </c>
@@ -15717,7 +15722,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <f>EDATE(A532,1)</f>
         <v>44197</v>
@@ -15742,7 +15747,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <f>EDATE(A534,1)</f>
         <v>44228</v>
@@ -15769,7 +15774,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <f t="shared" ref="A536:A537" si="26">EDATE(A535,1)</f>
         <v>44256</v>
@@ -15790,7 +15795,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <f t="shared" si="26"/>
         <v>44287</v>
@@ -15817,7 +15822,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <f>EDATE(A537,1)</f>
         <v>44317</v>
@@ -15838,7 +15843,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <f t="shared" ref="A539:A568" si="27">EDATE(A538,1)</f>
         <v>44348</v>
@@ -15859,7 +15864,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <f t="shared" si="27"/>
         <v>44378</v>
@@ -15880,7 +15885,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <f t="shared" si="27"/>
         <v>44409</v>
@@ -15901,7 +15906,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <f t="shared" si="27"/>
         <v>44440</v>
@@ -15922,7 +15927,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <f t="shared" si="27"/>
         <v>44470</v>
@@ -15943,7 +15948,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <f t="shared" si="27"/>
         <v>44501</v>
@@ -15964,7 +15969,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <f t="shared" si="27"/>
         <v>44531</v>
@@ -15989,7 +15994,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="48" t="s">
         <v>378</v>
       </c>
@@ -16007,7 +16012,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <f>EDATE(A545,1)</f>
         <v>44562</v>
@@ -16028,7 +16033,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <f t="shared" si="27"/>
         <v>44593</v>
@@ -16049,7 +16054,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <f t="shared" si="27"/>
         <v>44621</v>
@@ -16070,7 +16075,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <f t="shared" si="27"/>
         <v>44652</v>
@@ -16091,7 +16096,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <f t="shared" si="27"/>
         <v>44682</v>
@@ -16112,7 +16117,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <f t="shared" si="27"/>
         <v>44713</v>
@@ -16133,7 +16138,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <f t="shared" si="27"/>
         <v>44743</v>
@@ -16154,7 +16159,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <f t="shared" si="27"/>
         <v>44774</v>
@@ -16175,7 +16180,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <f t="shared" si="27"/>
         <v>44805</v>
@@ -16200,7 +16205,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <f t="shared" si="27"/>
         <v>44835</v>
@@ -16221,7 +16226,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <f t="shared" si="27"/>
         <v>44866</v>
@@ -16242,7 +16247,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <f t="shared" si="27"/>
         <v>44896</v>
@@ -16269,7 +16274,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="48" t="s">
         <v>379</v>
       </c>
@@ -16287,7 +16292,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <f>EDATE(A558,1)</f>
         <v>44927</v>
@@ -16308,7 +16313,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <f t="shared" si="27"/>
         <v>44958</v>
@@ -16329,7 +16334,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <f t="shared" si="27"/>
         <v>44986</v>
@@ -16350,31 +16355,35 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <f t="shared" si="27"/>
         <v>45017</v>
       </c>
       <c r="B563" s="20"/>
-      <c r="C563" s="13"/>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39"/>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <f t="shared" si="27"/>
         <v>45047</v>
       </c>
-      <c r="B564" s="20"/>
+      <c r="B564" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C564" s="13"/>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
@@ -16386,9 +16395,11 @@
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
-    </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K564" s="53" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <f t="shared" si="27"/>
         <v>45078</v>
@@ -16407,7 +16418,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <f t="shared" si="27"/>
         <v>45108</v>
@@ -16426,7 +16437,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <f t="shared" si="27"/>
         <v>45139</v>
@@ -16445,7 +16456,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <f t="shared" si="27"/>
         <v>45170</v>
@@ -16464,7 +16475,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16480,7 +16491,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16496,7 +16507,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16512,7 +16523,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16528,7 +16539,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16544,7 +16555,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16560,7 +16571,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16576,7 +16587,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16592,7 +16603,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16608,7 +16619,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16624,7 +16635,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16640,7 +16651,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -16656,7 +16667,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -16672,7 +16683,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -16688,7 +16699,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -16704,7 +16715,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -16720,7 +16731,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -16736,7 +16747,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -16752,7 +16763,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -16768,7 +16779,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -16784,7 +16795,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -16800,7 +16811,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -16816,7 +16827,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -16832,7 +16843,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -16848,7 +16859,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -16864,7 +16875,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -16880,7 +16891,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -16896,7 +16907,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -16912,7 +16923,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -16928,7 +16939,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -16944,7 +16955,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -16960,7 +16971,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -16976,7 +16987,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -16992,7 +17003,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -17008,7 +17019,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -17024,7 +17035,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -17040,7 +17051,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -17056,7 +17067,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -17072,7 +17083,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -17088,7 +17099,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -17104,7 +17115,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -17120,7 +17131,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17136,7 +17147,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17152,7 +17163,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17168,7 +17179,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17184,7 +17195,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17200,7 +17211,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17216,7 +17227,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17232,7 +17243,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17248,7 +17259,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17264,7 +17275,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17280,7 +17291,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17296,7 +17307,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17312,7 +17323,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41"/>
       <c r="B622" s="15"/>
       <c r="C622" s="42"/>
@@ -17343,10 +17354,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17369,7 +17380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -17377,34 +17388,34 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="63" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="J1" s="64" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="J1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17433,7 +17444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -17459,17 +17470,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>382</v>
       </c>
@@ -17486,17 +17497,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="64"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>387.01</v>
+        <v>389.51</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -17524,7 +17535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17550,7 +17561,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -17576,7 +17587,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -17602,7 +17613,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -17628,7 +17639,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -17654,7 +17665,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -17680,7 +17691,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -17706,7 +17717,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -17726,7 +17737,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -17746,7 +17757,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -17766,7 +17777,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -17787,7 +17798,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -17808,7 +17819,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -17829,7 +17840,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -17850,7 +17861,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -17871,7 +17882,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -17892,7 +17903,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -17913,7 +17924,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -17934,7 +17945,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -17955,7 +17966,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -17976,7 +17987,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -17997,7 +18008,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18018,7 +18029,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18039,7 +18050,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18060,7 +18071,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18081,7 +18092,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18102,7 +18113,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18123,7 +18134,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18144,7 +18155,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18165,7 +18176,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18186,7 +18197,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18195,7 +18206,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18204,7 +18215,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18213,7 +18224,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18222,7 +18233,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18231,7 +18242,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18240,7 +18251,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18249,7 +18260,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18258,7 +18269,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18267,7 +18278,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18276,7 +18287,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18285,7 +18296,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18294,7 +18305,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18303,7 +18314,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18312,7 +18323,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18321,7 +18332,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18330,7 +18341,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18339,7 +18350,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18348,7 +18359,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18357,7 +18368,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18366,7 +18377,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18375,7 +18386,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18384,7 +18395,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18393,7 +18404,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18402,7 +18413,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18411,7 +18422,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18420,7 +18431,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18429,7 +18440,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18438,7 +18449,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18447,7 +18458,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
+++ b/REGULAR/OJT/NEW DONE/PANALIGAN, GIL.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="385">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1186,6 +1186,9 @@
   </si>
   <si>
     <t>DOMESTIC 5/3/2023</t>
+  </si>
+  <si>
+    <t>6/14-16/2023</t>
   </si>
 </sst>
 </file>
@@ -2070,7 +2073,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2113,7 +2116,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2177,7 +2180,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2237,7 +2240,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2303,7 +2306,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2366,7 +2369,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2467,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2523,7 +2526,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2591,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2631,7 +2634,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,7 +2709,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2892,7 +2895,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2961,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3016,7 +3019,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3082,7 +3085,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3138,7 +3141,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3213,7 +3216,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3256,7 +3259,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3322,7 +3325,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3378,7 +3381,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3476,7 +3479,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3539,7 +3542,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3986,9 +3989,9 @@
   <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="2160" topLeftCell="A548" activePane="bottomLeft"/>
+      <pane ySplit="2160" topLeftCell="A551" activePane="bottomLeft"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="K565" sqref="K565"/>
+      <selection pane="bottomLeft" activeCell="K566" sqref="K566"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4149,7 +4152,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>152.63499999999999</v>
+        <v>153.88499999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4159,7 +4162,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>236.875</v>
+        <v>235.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16384,13 +16387,15 @@
       <c r="B564" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C564" s="13"/>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39"/>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
@@ -16404,7 +16409,9 @@
         <f t="shared" si="27"/>
         <v>45078</v>
       </c>
-      <c r="B565" s="20"/>
+      <c r="B565" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C565" s="13"/>
       <c r="D565" s="39"/>
       <c r="E565" s="9"/>
@@ -16413,10 +16420,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H565" s="39"/>
+      <c r="H565" s="39">
+        <v>3</v>
+      </c>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
-      <c r="K565" s="20"/>
+      <c r="K565" s="20" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
@@ -17507,7 +17518,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>389.51</v>
+        <v>389.01</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
